--- a/KI:KO/IGF/IGF1R/intercellular/Final_states_inter.xlsx
+++ b/KI:KO/IGF/IGF1R/intercellular/Final_states_inter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ftedo/Desktop/Szakdolgozat/simulations/KI:KO/IGF/IGF1R/intercellular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123BFF3F-408C-0242-83A8-B8DA49E6C91F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6514F3-3F9B-BC48-90FF-771D8DCF252E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20201211_0118" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3457,7 +3460,7 @@
     <t>Cell2</t>
   </si>
   <si>
-    <t>The effects of IGF1R treatment on epitheilal cells</t>
+    <t>IGF1R kezelés hatása epitheliális sejteken</t>
   </si>
 </sst>
 </file>
@@ -3837,7 +3840,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z132" sqref="Z132"/>
+      <selection pane="bottomRight" activeCell="Z119" sqref="Z119:AF124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
